--- a/static/docs/inputt.xlsx
+++ b/static/docs/inputt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tvural/PycharmProjects/shopistproject/static/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B42FC5-2F00-DA42-853F-F221017428B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71283617-0A0A-D948-B4F7-EB45A0BA668E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20440" yWindow="780" windowWidth="27640" windowHeight="15840" xr2:uid="{3816B111-AF51-5644-8A83-27FB5F2DB61F}"/>
+    <workbookView xWindow="1160" yWindow="780" windowWidth="27640" windowHeight="15840" xr2:uid="{3816B111-AF51-5644-8A83-27FB5F2DB61F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>kot</t>
   </si>
@@ -43,6 +43,51 @@
   </si>
   <si>
     <t>atki</t>
+  </si>
+  <si>
+    <t>avize</t>
+  </si>
+  <si>
+    <t>bere</t>
+  </si>
+  <si>
+    <t>pantolon</t>
+  </si>
+  <si>
+    <t>spor ayakkabi</t>
+  </si>
+  <si>
+    <t>elbise</t>
+  </si>
+  <si>
+    <t>kazak</t>
+  </si>
+  <si>
+    <t>yüksek bel</t>
+  </si>
+  <si>
+    <t>jean</t>
+  </si>
+  <si>
+    <t>kemer</t>
+  </si>
+  <si>
+    <t>etek</t>
+  </si>
+  <si>
+    <t>kaban</t>
+  </si>
+  <si>
+    <t>örme kazak</t>
+  </si>
+  <si>
+    <t>hirka</t>
+  </si>
+  <si>
+    <t>bluz</t>
+  </si>
+  <si>
+    <t>gomlek</t>
   </si>
 </sst>
 </file>
@@ -395,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5D6F87-FA11-584D-A78D-DD78B8B492EC}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,6 +478,81 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
